--- a/Survey Michael and Sophie.xlsx
+++ b/Survey Michael and Sophie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B912FA-B414-4A8E-89DF-F304213739AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD6D157-6CAE-479A-8B79-6CDF5C37A96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2231,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X84" workbookViewId="0">
-      <selection activeCell="AE92" sqref="AE92"/>
+    <sheetView tabSelected="1" topLeftCell="V52" workbookViewId="0">
+      <selection activeCell="AE41" sqref="AE41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4516,7 +4516,7 @@
         <v>221</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF9" s="5" t="s">
         <v>223</v>
@@ -25916,7 +25916,7 @@
   <autoFilter ref="A2:CL88" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D1:D87 I1:I87 J1:J87 K1:K87 L1:L87 M1:M87 N1:N87 O1:O87 P1:P87 Q1:Q87 R1:R3 S1:S87 T1:T87 U1:U87 V1:V87 W2:W87 X1:X87 Y1:Y87 Z1 AA1:AA87 AB1:AB87 AC1 AD1:AD87 AE1:AE3 AF1:AF87 AG1:AG87 AH1:AH3 AI1 AJ1 AK1:AK87 AL1:AL87 AM1:AM87 AN1:AN87 AO1:AO87 AP1:AP87 AQ1:AQ87 AR1:AR87 AS1:AS87 AT1:AT87 AU1:AU87 AV1:AV87 AW1:AW87 AX1:AX87 AY1:AY87 AZ1:AZ87 BA1:BA87 BB1:BB87 BC1:BC87 BD1:BD87 BE1:BE87 BF1:BF87 BG1:BG87 BH1:BH87 BI1:BI87 BJ1:BJ87 BK1:BK87 BL1:BL87 BM1:BM87 BN1:BN87 BO1:BO87 BP1:BP87 BQ1:BQ87 BR1:BR87 BS1:BS87 BT1:BT87 BU1:BU87 BV1:BV87 BW1:BW87 BX1:BX87 BY1:BY87 BZ1:BZ87 CA1:CA87 CB1:CB87 CC1:CC87 CD1:CD87 CE1:CE87 CF1:CF87 CG1:CG87 CH1:CH87 CI1:CI87 CJ1:CJ87 CK1:CK87 CL1:CL87 R5:R87 AH5:AH87 Z3:Z87 AC3:AC87 AI3:AI87 AJ3:AJ87 AE5:AE9 AE11:AE12 AE14:AE21 AE23:AE43 AE45:AE87" numberStoredAsText="1"/>
+    <ignoredError sqref="D1:D87 I1:I87 J1:J87 K1:K87 L1:L87 M1:M87 N1:N87 O1:O87 P1:P87 Q1:Q87 R1:R3 S1:S87 T1:T87 U1:U87 V1:V87 W2:W87 X1:X87 Y1:Y87 Z1 AA1:AA87 AB1:AB87 AC1 AD1:AD87 AE1:AE3 AF1:AF87 AG1:AG87 AH1:AH3 AI1 AJ1 AK1:AK87 AL1:AL87 AM1:AM87 AN1:AN87 AO1:AO87 AP1:AP87 AQ1:AQ87 AR1:AR87 AS1:AS87 AT1:AT87 AU1:AU87 AV1:AV87 AW1:AW87 AX1:AX87 AY1:AY87 AZ1:AZ87 BA1:BA87 BB1:BB87 BC1:BC87 BD1:BD87 BE1:BE87 BF1:BF87 BG1:BG87 BH1:BH87 BI1:BI87 BJ1:BJ87 BK1:BK87 BL1:BL87 BM1:BM87 BN1:BN87 BO1:BO87 BP1:BP87 BQ1:BQ87 BR1:BR87 BS1:BS87 BT1:BT87 BU1:BU87 BV1:BV87 BW1:BW87 BX1:BX87 BY1:BY87 BZ1:BZ87 CA1:CA87 CB1:CB87 CC1:CC87 CD1:CD87 CE1:CE87 CF1:CF87 CG1:CG87 CH1:CH87 CI1:CI87 CJ1:CJ87 CK1:CK87 CL1:CL87 R5:R87 AH5:AH87 Z3:Z87 AC3:AC87 AI3:AI87 AJ3:AJ87 AE5:AE8 AE11:AE12 AE14:AE21 AE23:AE37 AE45:AE87 AE39:AE43" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>